--- a/Wind_data/application/data/2021产品列表.xlsx
+++ b/Wind_data/application/data/2021产品列表.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372E9E48-A3E2-414F-A7CC-89E4089211AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B9D7D0-F548-E248-8875-B04F46F34DDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="500" windowWidth="25780" windowHeight="16140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="500" windowWidth="25780" windowHeight="16140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="保有量考核收入表" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">保有量考核收入表!$A$3:$E$203</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="529">
   <si>
     <t>产品名称</t>
   </si>
@@ -2516,7 +2517,7 @@
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:E429"/>
+      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6407,8 +6408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164F1E0F-E32A-924E-8D21-A2A72559AEE9}">
   <dimension ref="A1:E226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E428"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="A1:E226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10262,4 +10263,90 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F18113-75E3-BB4C-9FB8-6F17A98F4113}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="69.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" ht="19">
+      <c r="A2" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18">
+      <c r="A3" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18">
+      <c r="A4" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="D4" s="10">
+        <v>161005</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>